--- a/data/small/courses.xlsx
+++ b/data/small/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layo\Desktop\schub\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32253A-72E3-4D86-A1CB-508CF90229E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13B6DF-1E3D-4AFA-8C13-8DD2B3DE05EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{1B4C9B75-1000-4287-A35B-5484D5AABA99}"/>
+    <workbookView xWindow="-14400" yWindow="-1215" windowWidth="14400" windowHeight="16200" xr2:uid="{1B4C9B75-1000-4287-A35B-5484D5AABA99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3136,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9B9B4C-1F2E-4536-B8D4-189DE9E4C8E2}">
   <dimension ref="A1:M606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3228,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -3249,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -3291,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -3333,7 +3333,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -3354,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -3396,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -3417,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -3438,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -3480,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -3522,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -3543,7 +3543,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -3564,7 +3564,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -3627,7 +3627,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -3648,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -3669,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -3690,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -3711,7 +3711,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3753,7 +3753,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -3774,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
@@ -3795,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
@@ -3816,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -3837,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>42</v>
@@ -3858,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -3900,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>45</v>
@@ -3921,7 +3921,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
         <v>46</v>
@@ -3942,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -3963,7 +3963,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
         <v>48</v>
@@ -3984,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
         <v>49</v>
@@ -4047,7 +4047,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
@@ -4068,7 +4068,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
@@ -4089,7 +4089,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>54</v>
@@ -4110,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
         <v>55</v>
@@ -4131,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>71</v>
@@ -4173,7 +4173,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
         <v>560</v>
@@ -4194,7 +4194,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
         <v>561</v>
@@ -4215,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
         <v>562</v>
@@ -4236,7 +4236,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
         <v>563</v>
@@ -4257,7 +4257,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>564</v>
@@ -4278,7 +4278,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
         <v>565</v>
@@ -4320,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
         <v>567</v>
@@ -4341,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
         <v>568</v>
@@ -4362,7 +4362,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
         <v>569</v>
@@ -4383,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
         <v>570</v>
@@ -4404,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
         <v>571</v>
@@ -4467,7 +4467,7 @@
         <v>458</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E63" t="s">
         <v>574</v>
@@ -4488,7 +4488,7 @@
         <v>458</v>
       </c>
       <c r="D64" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E64" t="s">
         <v>575</v>
@@ -4509,7 +4509,7 @@
         <v>458</v>
       </c>
       <c r="D65" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E65" t="s">
         <v>576</v>
@@ -4530,7 +4530,7 @@
         <v>458</v>
       </c>
       <c r="D66" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E66" t="s">
         <v>577</v>
@@ -4551,7 +4551,7 @@
         <v>458</v>
       </c>
       <c r="D67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E67" t="s">
         <v>578</v>
@@ -4593,7 +4593,7 @@
         <v>458</v>
       </c>
       <c r="D69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E69" t="s">
         <v>580</v>
@@ -4614,7 +4614,7 @@
         <v>458</v>
       </c>
       <c r="D70" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E70" t="s">
         <v>581</v>
@@ -4635,7 +4635,7 @@
         <v>458</v>
       </c>
       <c r="D71" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E71" t="s">
         <v>582</v>
@@ -4656,7 +4656,7 @@
         <v>458</v>
       </c>
       <c r="D72" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E72" t="s">
         <v>583</v>
@@ -4677,7 +4677,7 @@
         <v>458</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E73" t="s">
         <v>584</v>
@@ -4698,7 +4698,7 @@
         <v>458</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E74" t="s">
         <v>585</v>
@@ -4740,7 +4740,7 @@
         <v>458</v>
       </c>
       <c r="D76" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E76" t="s">
         <v>587</v>
@@ -4761,7 +4761,7 @@
         <v>458</v>
       </c>
       <c r="D77" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E77" t="s">
         <v>588</v>
@@ -4782,7 +4782,7 @@
         <v>458</v>
       </c>
       <c r="D78" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E78" t="s">
         <v>589</v>
@@ -4803,7 +4803,7 @@
         <v>458</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E79" t="s">
         <v>590</v>
@@ -4824,7 +4824,7 @@
         <v>458</v>
       </c>
       <c r="D80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E80" t="s">
         <v>591</v>
@@ -4887,7 +4887,7 @@
         <v>459</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E83" t="s">
         <v>594</v>
@@ -4908,7 +4908,7 @@
         <v>459</v>
       </c>
       <c r="D84" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E84" t="s">
         <v>595</v>
@@ -4929,7 +4929,7 @@
         <v>459</v>
       </c>
       <c r="D85" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E85" t="s">
         <v>596</v>
@@ -4950,7 +4950,7 @@
         <v>459</v>
       </c>
       <c r="D86" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E86" t="s">
         <v>597</v>
@@ -4971,7 +4971,7 @@
         <v>459</v>
       </c>
       <c r="D87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E87" t="s">
         <v>598</v>
@@ -5013,7 +5013,7 @@
         <v>459</v>
       </c>
       <c r="D89" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E89" t="s">
         <v>600</v>
@@ -5034,7 +5034,7 @@
         <v>459</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E90" t="s">
         <v>601</v>
@@ -5055,7 +5055,7 @@
         <v>459</v>
       </c>
       <c r="D91" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E91" t="s">
         <v>602</v>
@@ -5076,7 +5076,7 @@
         <v>459</v>
       </c>
       <c r="D92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E92" t="s">
         <v>603</v>
@@ -5097,7 +5097,7 @@
         <v>459</v>
       </c>
       <c r="D93" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E93" t="s">
         <v>604</v>
@@ -5118,7 +5118,7 @@
         <v>459</v>
       </c>
       <c r="D94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E94" t="s">
         <v>605</v>
@@ -5160,7 +5160,7 @@
         <v>459</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E96" t="s">
         <v>607</v>
@@ -5181,7 +5181,7 @@
         <v>459</v>
       </c>
       <c r="D97" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E97" t="s">
         <v>608</v>
@@ -5202,7 +5202,7 @@
         <v>459</v>
       </c>
       <c r="D98" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E98" t="s">
         <v>609</v>
@@ -5223,7 +5223,7 @@
         <v>459</v>
       </c>
       <c r="D99" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E99" t="s">
         <v>610</v>
@@ -5244,7 +5244,7 @@
         <v>459</v>
       </c>
       <c r="D100" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E100" t="s">
         <v>611</v>
@@ -5307,7 +5307,7 @@
         <v>460</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E103" t="s">
         <v>614</v>
@@ -5328,7 +5328,7 @@
         <v>460</v>
       </c>
       <c r="D104" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E104" t="s">
         <v>615</v>
@@ -5349,7 +5349,7 @@
         <v>460</v>
       </c>
       <c r="D105" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E105" t="s">
         <v>616</v>
@@ -5370,7 +5370,7 @@
         <v>460</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E106" t="s">
         <v>617</v>
@@ -5391,7 +5391,7 @@
         <v>460</v>
       </c>
       <c r="D107" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E107" t="s">
         <v>618</v>
@@ -5433,7 +5433,7 @@
         <v>460</v>
       </c>
       <c r="D109" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E109" t="s">
         <v>620</v>
@@ -5454,7 +5454,7 @@
         <v>460</v>
       </c>
       <c r="D110" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E110" t="s">
         <v>621</v>
@@ -5475,7 +5475,7 @@
         <v>460</v>
       </c>
       <c r="D111" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E111" t="s">
         <v>622</v>
@@ -5496,7 +5496,7 @@
         <v>460</v>
       </c>
       <c r="D112" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E112" t="s">
         <v>623</v>
@@ -5517,7 +5517,7 @@
         <v>460</v>
       </c>
       <c r="D113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E113" t="s">
         <v>624</v>
@@ -5538,7 +5538,7 @@
         <v>460</v>
       </c>
       <c r="D114" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E114" t="s">
         <v>625</v>
@@ -5580,7 +5580,7 @@
         <v>460</v>
       </c>
       <c r="D116" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E116" t="s">
         <v>627</v>
@@ -5601,7 +5601,7 @@
         <v>460</v>
       </c>
       <c r="D117" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E117" t="s">
         <v>628</v>
@@ -5622,7 +5622,7 @@
         <v>460</v>
       </c>
       <c r="D118" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E118" t="s">
         <v>629</v>
@@ -5643,7 +5643,7 @@
         <v>460</v>
       </c>
       <c r="D119" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E119" t="s">
         <v>630</v>
@@ -5664,7 +5664,7 @@
         <v>460</v>
       </c>
       <c r="D120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E120" t="s">
         <v>631</v>
@@ -5727,7 +5727,7 @@
         <v>461</v>
       </c>
       <c r="D123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E123" t="s">
         <v>634</v>
@@ -5748,7 +5748,7 @@
         <v>461</v>
       </c>
       <c r="D124" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E124" t="s">
         <v>635</v>
@@ -5769,7 +5769,7 @@
         <v>461</v>
       </c>
       <c r="D125" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E125" t="s">
         <v>636</v>
@@ -5790,7 +5790,7 @@
         <v>461</v>
       </c>
       <c r="D126" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E126" t="s">
         <v>637</v>
@@ -5811,7 +5811,7 @@
         <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E127" t="s">
         <v>638</v>
@@ -5853,7 +5853,7 @@
         <v>461</v>
       </c>
       <c r="D129" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E129" t="s">
         <v>640</v>
@@ -5874,7 +5874,7 @@
         <v>461</v>
       </c>
       <c r="D130" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E130" t="s">
         <v>641</v>
@@ -5895,7 +5895,7 @@
         <v>461</v>
       </c>
       <c r="D131" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E131" t="s">
         <v>642</v>
@@ -5916,7 +5916,7 @@
         <v>461</v>
       </c>
       <c r="D132" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E132" t="s">
         <v>643</v>
@@ -5937,7 +5937,7 @@
         <v>461</v>
       </c>
       <c r="D133" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E133" t="s">
         <v>644</v>
@@ -5958,7 +5958,7 @@
         <v>461</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E134" t="s">
         <v>645</v>
@@ -6000,7 +6000,7 @@
         <v>461</v>
       </c>
       <c r="D136" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E136" t="s">
         <v>647</v>
@@ -6021,7 +6021,7 @@
         <v>461</v>
       </c>
       <c r="D137" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E137" t="s">
         <v>648</v>
@@ -6042,7 +6042,7 @@
         <v>461</v>
       </c>
       <c r="D138" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E138" t="s">
         <v>649</v>
@@ -6063,7 +6063,7 @@
         <v>461</v>
       </c>
       <c r="D139" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E139" t="s">
         <v>650</v>
@@ -6084,7 +6084,7 @@
         <v>461</v>
       </c>
       <c r="D140" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E140" t="s">
         <v>651</v>
@@ -6147,7 +6147,7 @@
         <v>462</v>
       </c>
       <c r="D143" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E143" t="s">
         <v>654</v>
@@ -6168,7 +6168,7 @@
         <v>462</v>
       </c>
       <c r="D144" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E144" t="s">
         <v>655</v>
@@ -6189,7 +6189,7 @@
         <v>462</v>
       </c>
       <c r="D145" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E145" t="s">
         <v>656</v>
@@ -6210,7 +6210,7 @@
         <v>462</v>
       </c>
       <c r="D146" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E146" t="s">
         <v>657</v>
@@ -6231,7 +6231,7 @@
         <v>462</v>
       </c>
       <c r="D147" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E147" t="s">
         <v>658</v>
@@ -6273,7 +6273,7 @@
         <v>462</v>
       </c>
       <c r="D149" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E149" t="s">
         <v>660</v>
@@ -6294,7 +6294,7 @@
         <v>462</v>
       </c>
       <c r="D150" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E150" t="s">
         <v>661</v>
@@ -6315,7 +6315,7 @@
         <v>462</v>
       </c>
       <c r="D151" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E151" t="s">
         <v>662</v>
@@ -6336,7 +6336,7 @@
         <v>462</v>
       </c>
       <c r="D152" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E152" t="s">
         <v>663</v>
@@ -6357,7 +6357,7 @@
         <v>462</v>
       </c>
       <c r="D153" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E153" t="s">
         <v>664</v>
@@ -6378,7 +6378,7 @@
         <v>462</v>
       </c>
       <c r="D154" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E154" t="s">
         <v>665</v>
@@ -6420,7 +6420,7 @@
         <v>462</v>
       </c>
       <c r="D156" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E156" t="s">
         <v>667</v>
@@ -6441,7 +6441,7 @@
         <v>462</v>
       </c>
       <c r="D157" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E157" t="s">
         <v>668</v>
@@ -6462,7 +6462,7 @@
         <v>462</v>
       </c>
       <c r="D158" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E158" t="s">
         <v>669</v>
@@ -6483,7 +6483,7 @@
         <v>462</v>
       </c>
       <c r="D159" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E159" t="s">
         <v>670</v>
@@ -6504,7 +6504,7 @@
         <v>462</v>
       </c>
       <c r="D160" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E160" t="s">
         <v>671</v>
@@ -6567,7 +6567,7 @@
         <v>463</v>
       </c>
       <c r="D163" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E163" t="s">
         <v>674</v>
@@ -6588,7 +6588,7 @@
         <v>463</v>
       </c>
       <c r="D164" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E164" t="s">
         <v>675</v>
@@ -6609,7 +6609,7 @@
         <v>463</v>
       </c>
       <c r="D165" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E165" t="s">
         <v>676</v>
@@ -6630,7 +6630,7 @@
         <v>463</v>
       </c>
       <c r="D166" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E166" t="s">
         <v>677</v>
@@ -6651,7 +6651,7 @@
         <v>463</v>
       </c>
       <c r="D167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E167" t="s">
         <v>678</v>
@@ -6693,7 +6693,7 @@
         <v>463</v>
       </c>
       <c r="D169" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E169" t="s">
         <v>680</v>
@@ -6714,7 +6714,7 @@
         <v>463</v>
       </c>
       <c r="D170" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E170" t="s">
         <v>681</v>
@@ -6735,7 +6735,7 @@
         <v>463</v>
       </c>
       <c r="D171" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E171" t="s">
         <v>682</v>
@@ -6756,7 +6756,7 @@
         <v>463</v>
       </c>
       <c r="D172" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E172" t="s">
         <v>683</v>
@@ -6777,7 +6777,7 @@
         <v>463</v>
       </c>
       <c r="D173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E173" t="s">
         <v>684</v>
@@ -6798,7 +6798,7 @@
         <v>463</v>
       </c>
       <c r="D174" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E174" t="s">
         <v>685</v>
@@ -6840,7 +6840,7 @@
         <v>463</v>
       </c>
       <c r="D176" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E176" t="s">
         <v>687</v>
@@ -6861,7 +6861,7 @@
         <v>463</v>
       </c>
       <c r="D177" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E177" t="s">
         <v>688</v>
@@ -6882,7 +6882,7 @@
         <v>463</v>
       </c>
       <c r="D178" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E178" t="s">
         <v>689</v>
@@ -6903,7 +6903,7 @@
         <v>463</v>
       </c>
       <c r="D179" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E179" t="s">
         <v>690</v>
@@ -6924,7 +6924,7 @@
         <v>463</v>
       </c>
       <c r="D180" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E180" t="s">
         <v>691</v>
@@ -6987,7 +6987,7 @@
         <v>464</v>
       </c>
       <c r="D183" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E183" t="s">
         <v>694</v>
@@ -7008,7 +7008,7 @@
         <v>464</v>
       </c>
       <c r="D184" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E184" t="s">
         <v>695</v>
@@ -7029,7 +7029,7 @@
         <v>464</v>
       </c>
       <c r="D185" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E185" t="s">
         <v>696</v>
@@ -7050,7 +7050,7 @@
         <v>464</v>
       </c>
       <c r="D186" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E186" t="s">
         <v>697</v>
@@ -7071,7 +7071,7 @@
         <v>464</v>
       </c>
       <c r="D187" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E187" t="s">
         <v>698</v>
@@ -7113,7 +7113,7 @@
         <v>464</v>
       </c>
       <c r="D189" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E189" t="s">
         <v>700</v>
@@ -7134,7 +7134,7 @@
         <v>464</v>
       </c>
       <c r="D190" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E190" t="s">
         <v>701</v>
@@ -7155,7 +7155,7 @@
         <v>464</v>
       </c>
       <c r="D191" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E191" t="s">
         <v>702</v>
@@ -7176,7 +7176,7 @@
         <v>464</v>
       </c>
       <c r="D192" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E192" t="s">
         <v>703</v>
@@ -7197,7 +7197,7 @@
         <v>464</v>
       </c>
       <c r="D193" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E193" t="s">
         <v>704</v>
@@ -7218,7 +7218,7 @@
         <v>464</v>
       </c>
       <c r="D194" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E194" t="s">
         <v>705</v>
@@ -7260,7 +7260,7 @@
         <v>464</v>
       </c>
       <c r="D196" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E196" t="s">
         <v>707</v>
@@ -7281,7 +7281,7 @@
         <v>464</v>
       </c>
       <c r="D197" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E197" t="s">
         <v>708</v>
@@ -7302,7 +7302,7 @@
         <v>464</v>
       </c>
       <c r="D198" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E198" t="s">
         <v>709</v>
@@ -7323,7 +7323,7 @@
         <v>464</v>
       </c>
       <c r="D199" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E199" t="s">
         <v>710</v>
@@ -7344,7 +7344,7 @@
         <v>464</v>
       </c>
       <c r="D200" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E200" t="s">
         <v>711</v>
@@ -7407,7 +7407,7 @@
         <v>465</v>
       </c>
       <c r="D203" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E203" t="s">
         <v>714</v>
@@ -7428,7 +7428,7 @@
         <v>465</v>
       </c>
       <c r="D204" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E204" t="s">
         <v>715</v>
@@ -7449,7 +7449,7 @@
         <v>465</v>
       </c>
       <c r="D205" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E205" t="s">
         <v>716</v>
@@ -7470,7 +7470,7 @@
         <v>465</v>
       </c>
       <c r="D206" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E206" t="s">
         <v>717</v>
@@ -7491,7 +7491,7 @@
         <v>465</v>
       </c>
       <c r="D207" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E207" t="s">
         <v>718</v>
@@ -7533,7 +7533,7 @@
         <v>465</v>
       </c>
       <c r="D209" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E209" t="s">
         <v>720</v>
@@ -7554,7 +7554,7 @@
         <v>465</v>
       </c>
       <c r="D210" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E210" t="s">
         <v>721</v>
@@ -7575,7 +7575,7 @@
         <v>465</v>
       </c>
       <c r="D211" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E211" t="s">
         <v>722</v>
@@ -7596,7 +7596,7 @@
         <v>465</v>
       </c>
       <c r="D212" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E212" t="s">
         <v>723</v>
@@ -7617,7 +7617,7 @@
         <v>465</v>
       </c>
       <c r="D213" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E213" t="s">
         <v>724</v>
@@ -7638,7 +7638,7 @@
         <v>465</v>
       </c>
       <c r="D214" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E214" t="s">
         <v>725</v>
@@ -7680,7 +7680,7 @@
         <v>465</v>
       </c>
       <c r="D216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E216" t="s">
         <v>727</v>
@@ -7701,7 +7701,7 @@
         <v>465</v>
       </c>
       <c r="D217" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E217" t="s">
         <v>728</v>
@@ -7722,7 +7722,7 @@
         <v>465</v>
       </c>
       <c r="D218" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E218" t="s">
         <v>729</v>
@@ -7743,7 +7743,7 @@
         <v>465</v>
       </c>
       <c r="D219" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E219" t="s">
         <v>730</v>
@@ -7764,7 +7764,7 @@
         <v>465</v>
       </c>
       <c r="D220" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E220" t="s">
         <v>731</v>
@@ -7827,7 +7827,7 @@
         <v>466</v>
       </c>
       <c r="D223" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E223" t="s">
         <v>734</v>
@@ -7848,7 +7848,7 @@
         <v>466</v>
       </c>
       <c r="D224" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E224" t="s">
         <v>735</v>
@@ -7869,7 +7869,7 @@
         <v>466</v>
       </c>
       <c r="D225" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E225" t="s">
         <v>736</v>
@@ -7890,7 +7890,7 @@
         <v>466</v>
       </c>
       <c r="D226" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E226" t="s">
         <v>737</v>
@@ -7911,7 +7911,7 @@
         <v>466</v>
       </c>
       <c r="D227" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E227" t="s">
         <v>738</v>
@@ -7953,7 +7953,7 @@
         <v>466</v>
       </c>
       <c r="D229" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E229" t="s">
         <v>740</v>
@@ -7974,7 +7974,7 @@
         <v>466</v>
       </c>
       <c r="D230" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E230" t="s">
         <v>741</v>
@@ -7995,7 +7995,7 @@
         <v>466</v>
       </c>
       <c r="D231" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E231" t="s">
         <v>742</v>
@@ -8016,7 +8016,7 @@
         <v>466</v>
       </c>
       <c r="D232" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E232" t="s">
         <v>743</v>
@@ -8037,7 +8037,7 @@
         <v>466</v>
       </c>
       <c r="D233" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E233" t="s">
         <v>744</v>
@@ -8058,7 +8058,7 @@
         <v>466</v>
       </c>
       <c r="D234" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E234" t="s">
         <v>745</v>
@@ -8100,7 +8100,7 @@
         <v>466</v>
       </c>
       <c r="D236" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E236" t="s">
         <v>747</v>
@@ -8121,7 +8121,7 @@
         <v>466</v>
       </c>
       <c r="D237" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E237" t="s">
         <v>748</v>
@@ -8142,7 +8142,7 @@
         <v>466</v>
       </c>
       <c r="D238" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E238" t="s">
         <v>749</v>
@@ -8163,7 +8163,7 @@
         <v>466</v>
       </c>
       <c r="D239" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E239" t="s">
         <v>750</v>
@@ -8184,7 +8184,7 @@
         <v>466</v>
       </c>
       <c r="D240" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E240" t="s">
         <v>751</v>
@@ -8247,7 +8247,7 @@
         <v>467</v>
       </c>
       <c r="D243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E243" t="s">
         <v>754</v>
@@ -8268,7 +8268,7 @@
         <v>467</v>
       </c>
       <c r="D244" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E244" t="s">
         <v>755</v>
@@ -8289,7 +8289,7 @@
         <v>467</v>
       </c>
       <c r="D245" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E245" t="s">
         <v>756</v>
@@ -8310,7 +8310,7 @@
         <v>467</v>
       </c>
       <c r="D246" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E246" t="s">
         <v>757</v>
@@ -8331,7 +8331,7 @@
         <v>467</v>
       </c>
       <c r="D247" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E247" t="s">
         <v>758</v>
@@ -8373,7 +8373,7 @@
         <v>467</v>
       </c>
       <c r="D249" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E249" t="s">
         <v>760</v>
@@ -8394,7 +8394,7 @@
         <v>467</v>
       </c>
       <c r="D250" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E250" t="s">
         <v>761</v>
@@ -8415,7 +8415,7 @@
         <v>467</v>
       </c>
       <c r="D251" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E251" t="s">
         <v>762</v>
@@ -8436,7 +8436,7 @@
         <v>467</v>
       </c>
       <c r="D252" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E252" t="s">
         <v>763</v>
@@ -8457,7 +8457,7 @@
         <v>467</v>
       </c>
       <c r="D253" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E253" t="s">
         <v>764</v>
@@ -8478,7 +8478,7 @@
         <v>467</v>
       </c>
       <c r="D254" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E254" t="s">
         <v>765</v>
@@ -8520,7 +8520,7 @@
         <v>467</v>
       </c>
       <c r="D256" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E256" t="s">
         <v>767</v>
@@ -8541,7 +8541,7 @@
         <v>467</v>
       </c>
       <c r="D257" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E257" t="s">
         <v>768</v>
@@ -8562,7 +8562,7 @@
         <v>467</v>
       </c>
       <c r="D258" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E258" t="s">
         <v>769</v>
@@ -8583,7 +8583,7 @@
         <v>467</v>
       </c>
       <c r="D259" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E259" t="s">
         <v>770</v>
@@ -8604,7 +8604,7 @@
         <v>467</v>
       </c>
       <c r="D260" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E260" t="s">
         <v>771</v>
@@ -8667,7 +8667,7 @@
         <v>468</v>
       </c>
       <c r="D263" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E263" t="s">
         <v>774</v>
@@ -8688,7 +8688,7 @@
         <v>468</v>
       </c>
       <c r="D264" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E264" t="s">
         <v>775</v>
@@ -8709,7 +8709,7 @@
         <v>468</v>
       </c>
       <c r="D265" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E265" t="s">
         <v>776</v>
@@ -8730,7 +8730,7 @@
         <v>468</v>
       </c>
       <c r="D266" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E266" t="s">
         <v>777</v>
@@ -8751,7 +8751,7 @@
         <v>468</v>
       </c>
       <c r="D267" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E267" t="s">
         <v>778</v>
@@ -8793,7 +8793,7 @@
         <v>468</v>
       </c>
       <c r="D269" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E269" t="s">
         <v>780</v>
@@ -8814,7 +8814,7 @@
         <v>468</v>
       </c>
       <c r="D270" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E270" t="s">
         <v>781</v>
@@ -8835,7 +8835,7 @@
         <v>468</v>
       </c>
       <c r="D271" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E271" t="s">
         <v>782</v>
@@ -8856,7 +8856,7 @@
         <v>468</v>
       </c>
       <c r="D272" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E272" t="s">
         <v>783</v>
@@ -8877,7 +8877,7 @@
         <v>468</v>
       </c>
       <c r="D273" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E273" t="s">
         <v>784</v>
@@ -8898,7 +8898,7 @@
         <v>468</v>
       </c>
       <c r="D274" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E274" t="s">
         <v>785</v>
@@ -8940,7 +8940,7 @@
         <v>468</v>
       </c>
       <c r="D276" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E276" t="s">
         <v>787</v>
@@ -8961,7 +8961,7 @@
         <v>468</v>
       </c>
       <c r="D277" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E277" t="s">
         <v>788</v>
@@ -8982,7 +8982,7 @@
         <v>468</v>
       </c>
       <c r="D278" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E278" t="s">
         <v>789</v>
@@ -9003,7 +9003,7 @@
         <v>468</v>
       </c>
       <c r="D279" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E279" t="s">
         <v>790</v>
@@ -9024,7 +9024,7 @@
         <v>468</v>
       </c>
       <c r="D280" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E280" t="s">
         <v>791</v>
@@ -9087,7 +9087,7 @@
         <v>469</v>
       </c>
       <c r="D283" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E283" t="s">
         <v>794</v>
@@ -9108,7 +9108,7 @@
         <v>469</v>
       </c>
       <c r="D284" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E284" t="s">
         <v>795</v>
@@ -9129,7 +9129,7 @@
         <v>469</v>
       </c>
       <c r="D285" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E285" t="s">
         <v>796</v>
@@ -9150,7 +9150,7 @@
         <v>469</v>
       </c>
       <c r="D286" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E286" t="s">
         <v>797</v>
@@ -9171,7 +9171,7 @@
         <v>469</v>
       </c>
       <c r="D287" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E287" t="s">
         <v>798</v>
@@ -9213,7 +9213,7 @@
         <v>469</v>
       </c>
       <c r="D289" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E289" t="s">
         <v>800</v>
@@ -9234,7 +9234,7 @@
         <v>469</v>
       </c>
       <c r="D290" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E290" t="s">
         <v>801</v>
@@ -9255,7 +9255,7 @@
         <v>469</v>
       </c>
       <c r="D291" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E291" t="s">
         <v>802</v>
@@ -9276,7 +9276,7 @@
         <v>469</v>
       </c>
       <c r="D292" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E292" t="s">
         <v>803</v>
@@ -9297,7 +9297,7 @@
         <v>469</v>
       </c>
       <c r="D293" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E293" t="s">
         <v>804</v>
@@ -9318,7 +9318,7 @@
         <v>469</v>
       </c>
       <c r="D294" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E294" t="s">
         <v>805</v>
@@ -9360,7 +9360,7 @@
         <v>469</v>
       </c>
       <c r="D296" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E296" t="s">
         <v>807</v>
@@ -9381,7 +9381,7 @@
         <v>469</v>
       </c>
       <c r="D297" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E297" t="s">
         <v>808</v>
@@ -9402,7 +9402,7 @@
         <v>469</v>
       </c>
       <c r="D298" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E298" t="s">
         <v>809</v>
@@ -9423,7 +9423,7 @@
         <v>469</v>
       </c>
       <c r="D299" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E299" t="s">
         <v>810</v>
@@ -9444,7 +9444,7 @@
         <v>469</v>
       </c>
       <c r="D300" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E300" t="s">
         <v>811</v>
@@ -9507,7 +9507,7 @@
         <v>470</v>
       </c>
       <c r="D303" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E303" t="s">
         <v>814</v>
@@ -9528,7 +9528,7 @@
         <v>470</v>
       </c>
       <c r="D304" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E304" t="s">
         <v>815</v>
@@ -9549,7 +9549,7 @@
         <v>470</v>
       </c>
       <c r="D305" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E305" t="s">
         <v>816</v>
@@ -9570,7 +9570,7 @@
         <v>470</v>
       </c>
       <c r="D306" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E306" t="s">
         <v>817</v>
@@ -9591,7 +9591,7 @@
         <v>470</v>
       </c>
       <c r="D307" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E307" t="s">
         <v>818</v>
@@ -9633,7 +9633,7 @@
         <v>470</v>
       </c>
       <c r="D309" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E309" t="s">
         <v>820</v>
@@ -9654,7 +9654,7 @@
         <v>470</v>
       </c>
       <c r="D310" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E310" t="s">
         <v>821</v>
@@ -9675,7 +9675,7 @@
         <v>470</v>
       </c>
       <c r="D311" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E311" t="s">
         <v>822</v>
@@ -9696,7 +9696,7 @@
         <v>470</v>
       </c>
       <c r="D312" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E312" t="s">
         <v>823</v>
@@ -9717,7 +9717,7 @@
         <v>470</v>
       </c>
       <c r="D313" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E313" t="s">
         <v>824</v>
@@ -9738,7 +9738,7 @@
         <v>470</v>
       </c>
       <c r="D314" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E314" t="s">
         <v>825</v>
@@ -9780,7 +9780,7 @@
         <v>470</v>
       </c>
       <c r="D316" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E316" t="s">
         <v>827</v>
@@ -9801,7 +9801,7 @@
         <v>470</v>
       </c>
       <c r="D317" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E317" t="s">
         <v>828</v>
@@ -9822,7 +9822,7 @@
         <v>470</v>
       </c>
       <c r="D318" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E318" t="s">
         <v>829</v>
@@ -9843,7 +9843,7 @@
         <v>470</v>
       </c>
       <c r="D319" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E319" t="s">
         <v>830</v>
@@ -9864,7 +9864,7 @@
         <v>470</v>
       </c>
       <c r="D320" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E320" t="s">
         <v>831</v>
@@ -9927,7 +9927,7 @@
         <v>471</v>
       </c>
       <c r="D323" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E323" t="s">
         <v>834</v>
@@ -9948,7 +9948,7 @@
         <v>471</v>
       </c>
       <c r="D324" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E324" t="s">
         <v>835</v>
@@ -9969,7 +9969,7 @@
         <v>471</v>
       </c>
       <c r="D325" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E325" t="s">
         <v>836</v>
@@ -9990,7 +9990,7 @@
         <v>471</v>
       </c>
       <c r="D326" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E326" t="s">
         <v>837</v>
@@ -10011,7 +10011,7 @@
         <v>471</v>
       </c>
       <c r="D327" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E327" t="s">
         <v>838</v>
@@ -10053,7 +10053,7 @@
         <v>471</v>
       </c>
       <c r="D329" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E329" t="s">
         <v>840</v>
@@ -10074,7 +10074,7 @@
         <v>471</v>
       </c>
       <c r="D330" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E330" t="s">
         <v>841</v>
@@ -10095,7 +10095,7 @@
         <v>471</v>
       </c>
       <c r="D331" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E331" t="s">
         <v>842</v>
@@ -10116,7 +10116,7 @@
         <v>471</v>
       </c>
       <c r="D332" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E332" t="s">
         <v>843</v>
@@ -10137,7 +10137,7 @@
         <v>471</v>
       </c>
       <c r="D333" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E333" t="s">
         <v>844</v>
@@ -10158,7 +10158,7 @@
         <v>471</v>
       </c>
       <c r="D334" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E334" t="s">
         <v>845</v>
@@ -10200,7 +10200,7 @@
         <v>471</v>
       </c>
       <c r="D336" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E336" t="s">
         <v>847</v>
@@ -10221,7 +10221,7 @@
         <v>471</v>
       </c>
       <c r="D337" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E337" t="s">
         <v>848</v>
@@ -10242,7 +10242,7 @@
         <v>471</v>
       </c>
       <c r="D338" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E338" t="s">
         <v>849</v>
@@ -10263,7 +10263,7 @@
         <v>471</v>
       </c>
       <c r="D339" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E339" t="s">
         <v>850</v>
@@ -10284,7 +10284,7 @@
         <v>471</v>
       </c>
       <c r="D340" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E340" t="s">
         <v>851</v>
@@ -10347,7 +10347,7 @@
         <v>472</v>
       </c>
       <c r="D343" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E343" t="s">
         <v>854</v>
@@ -10368,7 +10368,7 @@
         <v>472</v>
       </c>
       <c r="D344" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E344" t="s">
         <v>855</v>
@@ -10389,7 +10389,7 @@
         <v>472</v>
       </c>
       <c r="D345" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E345" t="s">
         <v>856</v>
@@ -10410,7 +10410,7 @@
         <v>472</v>
       </c>
       <c r="D346" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E346" t="s">
         <v>857</v>
@@ -10431,7 +10431,7 @@
         <v>472</v>
       </c>
       <c r="D347" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E347" t="s">
         <v>858</v>
@@ -10473,7 +10473,7 @@
         <v>472</v>
       </c>
       <c r="D349" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E349" t="s">
         <v>860</v>
@@ -10494,7 +10494,7 @@
         <v>472</v>
       </c>
       <c r="D350" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E350" t="s">
         <v>861</v>
@@ -10515,7 +10515,7 @@
         <v>472</v>
       </c>
       <c r="D351" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E351" t="s">
         <v>862</v>
@@ -10536,7 +10536,7 @@
         <v>472</v>
       </c>
       <c r="D352" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E352" t="s">
         <v>863</v>
@@ -10557,7 +10557,7 @@
         <v>472</v>
       </c>
       <c r="D353" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E353" t="s">
         <v>864</v>
@@ -10578,7 +10578,7 @@
         <v>472</v>
       </c>
       <c r="D354" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E354" t="s">
         <v>865</v>
@@ -10620,7 +10620,7 @@
         <v>472</v>
       </c>
       <c r="D356" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E356" t="s">
         <v>867</v>
@@ -10641,7 +10641,7 @@
         <v>472</v>
       </c>
       <c r="D357" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E357" t="s">
         <v>868</v>
@@ -10662,7 +10662,7 @@
         <v>472</v>
       </c>
       <c r="D358" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E358" t="s">
         <v>869</v>
@@ -10683,7 +10683,7 @@
         <v>472</v>
       </c>
       <c r="D359" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E359" t="s">
         <v>870</v>
@@ -10704,7 +10704,7 @@
         <v>472</v>
       </c>
       <c r="D360" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E360" t="s">
         <v>871</v>
@@ -10767,7 +10767,7 @@
         <v>473</v>
       </c>
       <c r="D363" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E363" t="s">
         <v>874</v>
@@ -10788,7 +10788,7 @@
         <v>473</v>
       </c>
       <c r="D364" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E364" t="s">
         <v>875</v>
@@ -10809,7 +10809,7 @@
         <v>473</v>
       </c>
       <c r="D365" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E365" t="s">
         <v>876</v>
@@ -10830,7 +10830,7 @@
         <v>473</v>
       </c>
       <c r="D366" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E366" t="s">
         <v>877</v>
@@ -10851,7 +10851,7 @@
         <v>473</v>
       </c>
       <c r="D367" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E367" t="s">
         <v>878</v>
@@ -10893,7 +10893,7 @@
         <v>473</v>
       </c>
       <c r="D369" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E369" t="s">
         <v>880</v>
@@ -10914,7 +10914,7 @@
         <v>473</v>
       </c>
       <c r="D370" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E370" t="s">
         <v>881</v>
@@ -10935,7 +10935,7 @@
         <v>473</v>
       </c>
       <c r="D371" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E371" t="s">
         <v>882</v>
@@ -10956,7 +10956,7 @@
         <v>473</v>
       </c>
       <c r="D372" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E372" t="s">
         <v>883</v>
@@ -10977,7 +10977,7 @@
         <v>473</v>
       </c>
       <c r="D373" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E373" t="s">
         <v>884</v>
@@ -10998,7 +10998,7 @@
         <v>473</v>
       </c>
       <c r="D374" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E374" t="s">
         <v>885</v>
@@ -11040,7 +11040,7 @@
         <v>473</v>
       </c>
       <c r="D376" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E376" t="s">
         <v>887</v>
@@ -11061,7 +11061,7 @@
         <v>473</v>
       </c>
       <c r="D377" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E377" t="s">
         <v>888</v>
@@ -11082,7 +11082,7 @@
         <v>473</v>
       </c>
       <c r="D378" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E378" t="s">
         <v>889</v>
@@ -11103,7 +11103,7 @@
         <v>473</v>
       </c>
       <c r="D379" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E379" t="s">
         <v>890</v>
@@ -11124,7 +11124,7 @@
         <v>473</v>
       </c>
       <c r="D380" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E380" t="s">
         <v>891</v>
@@ -11187,7 +11187,7 @@
         <v>474</v>
       </c>
       <c r="D383" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E383" t="s">
         <v>894</v>
@@ -11208,7 +11208,7 @@
         <v>474</v>
       </c>
       <c r="D384" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E384" t="s">
         <v>895</v>
@@ -11229,7 +11229,7 @@
         <v>474</v>
       </c>
       <c r="D385" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E385" t="s">
         <v>896</v>
@@ -11250,7 +11250,7 @@
         <v>474</v>
       </c>
       <c r="D386" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E386" t="s">
         <v>897</v>
@@ -11271,7 +11271,7 @@
         <v>474</v>
       </c>
       <c r="D387" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E387" t="s">
         <v>898</v>
@@ -11313,7 +11313,7 @@
         <v>474</v>
       </c>
       <c r="D389" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E389" t="s">
         <v>900</v>
@@ -11334,7 +11334,7 @@
         <v>474</v>
       </c>
       <c r="D390" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E390" t="s">
         <v>901</v>
@@ -11355,7 +11355,7 @@
         <v>474</v>
       </c>
       <c r="D391" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E391" t="s">
         <v>902</v>
@@ -11376,7 +11376,7 @@
         <v>474</v>
       </c>
       <c r="D392" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E392" t="s">
         <v>903</v>
@@ -11397,7 +11397,7 @@
         <v>474</v>
       </c>
       <c r="D393" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E393" t="s">
         <v>904</v>
@@ -11418,7 +11418,7 @@
         <v>474</v>
       </c>
       <c r="D394" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E394" t="s">
         <v>905</v>
@@ -11460,7 +11460,7 @@
         <v>474</v>
       </c>
       <c r="D396" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E396" t="s">
         <v>907</v>
@@ -11481,7 +11481,7 @@
         <v>474</v>
       </c>
       <c r="D397" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E397" t="s">
         <v>908</v>
@@ -11502,7 +11502,7 @@
         <v>474</v>
       </c>
       <c r="D398" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E398" t="s">
         <v>909</v>
@@ -11523,7 +11523,7 @@
         <v>474</v>
       </c>
       <c r="D399" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E399" t="s">
         <v>910</v>
@@ -11544,7 +11544,7 @@
         <v>474</v>
       </c>
       <c r="D400" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E400" t="s">
         <v>911</v>
